--- a/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6CF12D0-4A2B-45F8-8D4F-998389671BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1782B12B-56F1-400A-86F9-ECFB7F7FE751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DE88054-243B-4FDD-AE3C-356BB0A2DA0A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61A1757A-9C92-41D1-AF7A-759D01AD34E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>24,22%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>75,78%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1744 +140,1744 @@
     <t>21,78%</t>
   </si>
   <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
     <t>18,13%</t>
   </si>
   <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>75,4%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>55,12%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1886,10 +1886,10 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B39706-F61A-4421-861A-DCFD896EBB0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CACC26-DA09-4808-83EA-2E0DC929FACB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2905,13 +2905,13 @@
         <v>129381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -2920,13 +2920,13 @@
         <v>204324</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2941,13 @@
         <v>283728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>252</v>
@@ -2956,13 +2956,13 @@
         <v>242075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>538</v>
@@ -2971,13 +2971,13 @@
         <v>525803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3045,13 +3045,13 @@
         <v>30885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3060,13 +3060,13 @@
         <v>47717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3075,13 +3075,13 @@
         <v>78602</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3096,13 @@
         <v>172423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3111,13 +3111,13 @@
         <v>159951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>327</v>
@@ -3126,13 +3126,13 @@
         <v>332374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3200,13 @@
         <v>51840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -3215,13 +3215,13 @@
         <v>82163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3230,13 +3230,13 @@
         <v>134002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3251,13 @@
         <v>218971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -3266,13 +3266,13 @@
         <v>195981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>404</v>
@@ -3281,13 +3281,13 @@
         <v>414953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3355,13 @@
         <v>86053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3370,13 +3370,13 @@
         <v>131406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -3385,13 +3385,13 @@
         <v>217460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3406,13 @@
         <v>528974</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>489</v>
@@ -3421,13 +3421,13 @@
         <v>506813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>997</v>
@@ -3436,13 +3436,13 @@
         <v>1035786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3510,13 @@
         <v>137143</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -3525,13 +3525,13 @@
         <v>203839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -3540,13 +3540,13 @@
         <v>340982</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3561,13 @@
         <v>606652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>557</v>
@@ -3576,13 +3576,13 @@
         <v>579672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -3591,13 +3591,13 @@
         <v>1186324</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3665,13 @@
         <v>595684</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>959</v>
@@ -3680,28 +3680,28 @@
         <v>986706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
       </c>
       <c r="N28" s="7">
-        <v>1582389</v>
+        <v>1582390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3716,13 @@
         <v>2680860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2338</v>
@@ -3731,13 +3731,13 @@
         <v>2392492</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4952</v>
@@ -3746,13 +3746,13 @@
         <v>5073351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EAEC0C-85C9-45EE-84D4-04319BBBF38A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4442558C-9A89-4228-A8F2-391D72EE62F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4093,13 @@
         <v>71639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -4108,13 +4108,13 @@
         <v>152155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -4123,13 +4123,13 @@
         <v>223794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4144,13 @@
         <v>432941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -4159,13 +4159,13 @@
         <v>371610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -4174,13 +4174,13 @@
         <v>804551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4248,13 @@
         <v>51539</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4263,13 +4263,13 @@
         <v>89820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4278,13 +4278,13 @@
         <v>141359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4299,13 @@
         <v>272507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -4314,13 +4314,13 @@
         <v>251200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -4329,13 +4329,13 @@
         <v>523707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4403,13 @@
         <v>121492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -4418,13 +4418,13 @@
         <v>239682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -4433,13 +4433,13 @@
         <v>361174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4454,13 @@
         <v>537980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -4469,13 +4469,13 @@
         <v>433621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>901</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4713,13 +4713,13 @@
         <v>67302</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4728,13 +4728,13 @@
         <v>81493</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4743,13 +4743,13 @@
         <v>148795</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4764,13 @@
         <v>205811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -4779,13 +4779,13 @@
         <v>198538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>385</v>
@@ -4794,13 +4794,13 @@
         <v>404349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4868,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4883,13 +4883,13 @@
         <v>186302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -4898,13 +4898,13 @@
         <v>286071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4919,13 @@
         <v>562065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>468</v>
@@ -4934,13 +4934,13 @@
         <v>506579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
@@ -4949,13 +4949,13 @@
         <v>1068645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +5023,13 @@
         <v>185743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -5041,10 +5041,10 @@
         <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -5053,13 +5053,13 @@
         <v>448292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5074,13 @@
         <v>588279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>519</v>
@@ -5092,10 +5092,10 @@
         <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1065</v>
@@ -5104,13 +5104,13 @@
         <v>1149584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5178,13 @@
         <v>643427</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>1032</v>
@@ -5193,13 +5193,13 @@
         <v>1113667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>1619</v>
@@ -5208,13 +5208,13 @@
         <v>1757093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,16 +5226,16 @@
         <v>2606</v>
       </c>
       <c r="D29" s="7">
-        <v>2766261</v>
+        <v>2766260</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -5244,28 +5244,28 @@
         <v>2440777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>4868</v>
       </c>
       <c r="N29" s="7">
-        <v>5207038</v>
+        <v>5207037</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5277,7 @@
         <v>3193</v>
       </c>
       <c r="D30" s="7">
-        <v>3409688</v>
+        <v>3409687</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5307,7 +5307,7 @@
         <v>6487</v>
       </c>
       <c r="N30" s="7">
-        <v>6964131</v>
+        <v>6964130</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B2A039-9029-4BCA-8F58-CCB865C994BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343063CE-DC1B-4714-99C5-53057743C977}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5782,10 +5782,10 @@
         <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5794,13 +5794,13 @@
         <v>75025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5809,13 +5809,13 @@
         <v>116865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5830,13 @@
         <v>274051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5845,13 +5845,13 @@
         <v>256182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5860,13 +5860,13 @@
         <v>530233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5934,13 @@
         <v>82175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -5949,13 +5949,13 @@
         <v>143041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -5964,13 +5964,13 @@
         <v>225216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,10 +5985,10 @@
         <v>285774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>379</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6107,7 +6107,7 @@
         <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>390</v>
@@ -6161,7 +6161,7 @@
         <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6250,7 +6250,7 @@
         <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6259,13 +6259,13 @@
         <v>83592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6274,13 +6274,13 @@
         <v>141139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6295,13 @@
         <v>205576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6310,13 +6310,13 @@
         <v>187388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
@@ -6325,13 +6325,13 @@
         <v>392964</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6399,13 @@
         <v>150027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -6414,13 +6414,13 @@
         <v>215593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6429,13 +6429,13 @@
         <v>365620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6450,13 @@
         <v>499633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>452</v>
@@ -6465,13 +6465,13 @@
         <v>472573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>892</v>
@@ -6480,13 +6480,13 @@
         <v>972206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6542,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6575,7 +6575,7 @@
         <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>304</v>
@@ -6584,13 +6584,13 @@
         <v>335826</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6605,13 @@
         <v>651380</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>569</v>
@@ -6620,13 +6620,13 @@
         <v>609370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -6635,13 +6635,13 @@
         <v>1260750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6709,13 @@
         <v>625326</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H28" s="7">
         <v>903</v>
@@ -6730,7 +6730,7 @@
         <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1509</v>
@@ -6739,13 +6739,13 @@
         <v>1640099</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6760,13 @@
         <v>2744304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>2413</v>
@@ -6775,13 +6775,13 @@
         <v>2507215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>5015</v>
@@ -6790,13 +6790,13 @@
         <v>5251519</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC850A74-EE55-4143-A9F8-3C9855ADC952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5860532-A7D3-4DB0-A448-6F06346375DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +7000,13 @@
         <v>78551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>280</v>
@@ -7015,13 +7015,13 @@
         <v>138967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>382</v>
@@ -7030,13 +7030,13 @@
         <v>217518</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7051,13 @@
         <v>181747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -7066,13 +7066,13 @@
         <v>132436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
@@ -7081,13 +7081,13 @@
         <v>314182</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7155,13 @@
         <v>126100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -7170,13 +7170,13 @@
         <v>193618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -7185,13 +7185,13 @@
         <v>319718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7206,13 @@
         <v>393197</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -7221,13 +7221,13 @@
         <v>360948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -7236,13 +7236,13 @@
         <v>754146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7310,13 @@
         <v>107098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
@@ -7325,13 +7325,13 @@
         <v>137658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
@@ -7340,13 +7340,13 @@
         <v>244755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7361,13 @@
         <v>215142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -7376,13 +7376,13 @@
         <v>235626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>525</v>
@@ -7391,13 +7391,13 @@
         <v>450769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7465,13 @@
         <v>101213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -7480,13 +7480,13 @@
         <v>177839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M13" s="7">
         <v>421</v>
@@ -7495,13 +7495,13 @@
         <v>279052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7516,13 @@
         <v>219524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -7531,13 +7531,13 @@
         <v>250219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -7546,13 +7546,13 @@
         <v>469743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7620,13 +7620,13 @@
         <v>46342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -7635,13 +7635,13 @@
         <v>76401</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>256</v>
@@ -7650,13 +7650,13 @@
         <v>122743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7671,13 @@
         <v>150406</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -7686,13 +7686,13 @@
         <v>155004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
@@ -7701,13 +7701,13 @@
         <v>305409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7775,13 +7775,13 @@
         <v>122470</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H19" s="7">
         <v>294</v>
@@ -7790,13 +7790,13 @@
         <v>150016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M19" s="7">
         <v>482</v>
@@ -7805,13 +7805,13 @@
         <v>272485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7826,13 @@
         <v>154753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -7841,13 +7841,13 @@
         <v>125606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
@@ -7856,13 +7856,13 @@
         <v>280360</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7930,13 @@
         <v>169071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H22" s="7">
         <v>366</v>
@@ -7945,13 +7945,13 @@
         <v>355699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M22" s="7">
         <v>534</v>
@@ -7960,13 +7960,13 @@
         <v>524770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7981,13 @@
         <v>457923</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
@@ -7996,13 +7996,13 @@
         <v>446594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M23" s="7">
         <v>1021</v>
@@ -8011,13 +8011,13 @@
         <v>904517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8085,13 +8085,13 @@
         <v>146024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
@@ -8100,13 +8100,13 @@
         <v>256956</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>591</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>516</v>
@@ -8115,13 +8115,13 @@
         <v>402980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8136,13 @@
         <v>712322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>592</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>708</v>
@@ -8151,13 +8151,13 @@
         <v>609910</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>1305</v>
@@ -8166,13 +8166,13 @@
         <v>1322232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8240,13 @@
         <v>896869</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>253</v>
+        <v>600</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>601</v>
       </c>
       <c r="H28" s="7">
         <v>2298</v>
@@ -8255,13 +8255,13 @@
         <v>1487154</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M28" s="7">
         <v>3348</v>
@@ -8270,13 +8270,13 @@
         <v>2384023</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,19 +8291,19 @@
         <v>2485013</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>3059</v>
       </c>
       <c r="I29" s="7">
-        <v>2316342</v>
+        <v>2316343</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>611</v>
@@ -8318,7 +8318,7 @@
         <v>5382</v>
       </c>
       <c r="N29" s="7">
-        <v>4801357</v>
+        <v>4801356</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>614</v>
@@ -8354,7 +8354,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3803496</v>
+        <v>3803497</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8369,7 +8369,7 @@
         <v>8730</v>
       </c>
       <c r="N30" s="7">
-        <v>7185380</v>
+        <v>7185379</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1782B12B-56F1-400A-86F9-ECFB7F7FE751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426DD433-86B7-4AF5-828C-8790B160BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61A1757A-9C92-41D1-AF7A-759D01AD34E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A316177-7F77-40F5-B48B-6B43F5700ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>24,22%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>75,78%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1545 +140,1545 @@
     <t>21,78%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>41,75%</t>
   </si>
   <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>31,87%</t>
   </si>
   <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>71,14%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
     <t>71,33%</t>
   </si>
   <si>
@@ -1709,9 +1709,6 @@
     <t>45,64%</t>
   </si>
   <si>
-    <t>52,97%</t>
-  </si>
-  <si>
     <t>55,82%</t>
   </si>
   <si>
@@ -1728,9 +1725,6 @@
   </si>
   <si>
     <t>50,71%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
   </si>
   <si>
     <t>54,36%</t>
@@ -2301,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CACC26-DA09-4808-83EA-2E0DC929FACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1F5357-91E9-406D-9978-A1A3FA554899}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3051,7 +3045,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3060,13 +3054,13 @@
         <v>47717</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3075,13 +3069,13 @@
         <v>78602</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3090,13 @@
         <v>172423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3111,13 +3105,13 @@
         <v>159951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>327</v>
@@ -3126,13 +3120,13 @@
         <v>332374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3194,13 @@
         <v>51840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -3215,13 +3209,13 @@
         <v>82163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3230,13 +3224,13 @@
         <v>134002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3245,13 @@
         <v>218971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -3266,13 +3260,13 @@
         <v>195981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>404</v>
@@ -3281,13 +3275,13 @@
         <v>414953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3349,13 @@
         <v>86053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3370,13 +3364,13 @@
         <v>131406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -3385,13 +3379,13 @@
         <v>217460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3400,13 @@
         <v>528974</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>489</v>
@@ -3421,13 +3415,13 @@
         <v>506813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>997</v>
@@ -3436,13 +3430,13 @@
         <v>1035786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3504,13 @@
         <v>137143</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -3525,13 +3519,13 @@
         <v>203839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -3540,13 +3534,13 @@
         <v>340982</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3555,13 @@
         <v>606652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>557</v>
@@ -3576,13 +3570,13 @@
         <v>579672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -3591,13 +3585,13 @@
         <v>1186324</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3659,13 @@
         <v>595684</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>959</v>
@@ -3680,13 +3674,13 @@
         <v>986706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -3695,13 +3689,13 @@
         <v>1582390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,16 +3707,16 @@
         <v>2614</v>
       </c>
       <c r="D29" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>2338</v>
@@ -3731,13 +3725,13 @@
         <v>2392492</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>4952</v>
@@ -3746,13 +3740,13 @@
         <v>5073351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3758,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4442558C-9A89-4228-A8F2-391D72EE62F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756C94AB-E089-4990-8A4B-1A6BC162B783}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4087,13 @@
         <v>71639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -4108,13 +4102,13 @@
         <v>152155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -4123,13 +4117,13 @@
         <v>223794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4138,13 @@
         <v>432941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -4159,13 +4153,13 @@
         <v>371610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -4174,13 +4168,13 @@
         <v>804551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4242,13 @@
         <v>51539</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4263,13 +4257,13 @@
         <v>89820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4278,13 +4272,13 @@
         <v>141359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4293,13 @@
         <v>272507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -4314,13 +4308,13 @@
         <v>251200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -4329,13 +4323,13 @@
         <v>523707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4397,13 @@
         <v>121492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -4418,13 +4412,13 @@
         <v>239682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -4433,13 +4427,13 @@
         <v>361174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4448,13 @@
         <v>537980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -4469,13 +4463,13 @@
         <v>433621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>901</v>
@@ -4484,13 +4478,13 @@
         <v>971601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4552,13 @@
         <v>45941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4573,13 +4567,13 @@
         <v>101665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -4588,13 +4582,13 @@
         <v>147607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4603,13 @@
         <v>166677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -4624,13 +4618,13 @@
         <v>117926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4639,13 +4633,13 @@
         <v>284602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4695,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4713,13 +4707,13 @@
         <v>67302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4728,13 +4722,13 @@
         <v>81493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4743,13 +4737,13 @@
         <v>148795</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4758,13 @@
         <v>205811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -4779,13 +4773,13 @@
         <v>198538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>385</v>
@@ -4794,13 +4788,13 @@
         <v>404349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4850,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4862,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4883,13 +4877,13 @@
         <v>186302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -4898,13 +4892,13 @@
         <v>286071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4913,13 @@
         <v>562065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>468</v>
@@ -4934,13 +4928,13 @@
         <v>506579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
@@ -4949,13 +4943,13 @@
         <v>1068645</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +5017,13 @@
         <v>185743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -5041,10 +5035,10 @@
         <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -5053,13 +5047,13 @@
         <v>448292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5068,13 @@
         <v>588279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
         <v>519</v>
@@ -5092,10 +5086,10 @@
         <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>1065</v>
@@ -5104,13 +5098,13 @@
         <v>1149584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5172,13 @@
         <v>643427</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>1032</v>
@@ -5193,13 +5187,13 @@
         <v>1113667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>1619</v>
@@ -5208,13 +5202,13 @@
         <v>1757093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,16 +5220,16 @@
         <v>2606</v>
       </c>
       <c r="D29" s="7">
-        <v>2766260</v>
+        <v>2766261</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -5244,28 +5238,28 @@
         <v>2440777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>4868</v>
       </c>
       <c r="N29" s="7">
-        <v>5207037</v>
+        <v>5207038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5271,7 @@
         <v>3193</v>
       </c>
       <c r="D30" s="7">
-        <v>3409687</v>
+        <v>3409688</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5307,7 +5301,7 @@
         <v>6487</v>
       </c>
       <c r="N30" s="7">
-        <v>6964130</v>
+        <v>6964131</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5321,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343063CE-DC1B-4714-99C5-53057743C977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEAF9A8-ABBE-4CE2-A909-6AC2C18C1120}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5463,13 @@
         <v>59696</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -5484,13 +5478,13 @@
         <v>108205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>156</v>
@@ -5499,13 +5493,13 @@
         <v>167901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5514,13 @@
         <v>229800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -5535,13 +5529,13 @@
         <v>178647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>381</v>
@@ -5550,13 +5544,13 @@
         <v>408448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5618,13 @@
         <v>65675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -5639,13 +5633,13 @@
         <v>112694</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>161</v>
@@ -5654,13 +5648,13 @@
         <v>178369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5669,13 @@
         <v>436900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5690,13 +5684,13 @@
         <v>407152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>795</v>
@@ -5705,13 +5699,13 @@
         <v>844053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5773,13 @@
         <v>41840</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5794,13 +5788,13 @@
         <v>75025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5809,13 +5803,13 @@
         <v>116865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5824,13 @@
         <v>274051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5845,13 +5839,13 @@
         <v>256182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5860,13 +5854,13 @@
         <v>530233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5928,13 @@
         <v>82175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -5949,13 +5943,13 @@
         <v>143041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -5964,13 +5958,13 @@
         <v>225216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5979,13 @@
         <v>285774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -6000,13 +5994,13 @@
         <v>241204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -6015,13 +6009,13 @@
         <v>526978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6083,13 @@
         <v>45275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -6104,13 +6098,13 @@
         <v>63888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -6119,13 +6113,13 @@
         <v>109163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6134,13 @@
         <v>161190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6155,13 +6149,13 @@
         <v>154699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -6170,13 +6164,13 @@
         <v>315889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6238,13 @@
         <v>57547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6259,13 +6253,13 @@
         <v>83592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6274,13 +6268,13 @@
         <v>141139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6289,13 @@
         <v>205576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6310,28 +6304,28 @@
         <v>187388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
       </c>
       <c r="N20" s="7">
-        <v>392964</v>
+        <v>392963</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,7 +6367,7 @@
         <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>534103</v>
+        <v>534102</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6387,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6393,13 @@
         <v>150027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -6414,13 +6408,13 @@
         <v>215593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6429,13 +6423,13 @@
         <v>365620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6444,13 @@
         <v>499633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>452</v>
@@ -6465,13 +6459,13 @@
         <v>472573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>892</v>
@@ -6480,13 +6474,13 @@
         <v>972206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>87</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6548,13 @@
         <v>123091</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -6569,13 +6563,13 @@
         <v>212735</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>304</v>
@@ -6584,13 +6578,13 @@
         <v>335826</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6599,13 @@
         <v>651380</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>569</v>
@@ -6620,13 +6614,13 @@
         <v>609370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -6635,13 +6629,13 @@
         <v>1260750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6703,13 @@
         <v>625326</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>903</v>
@@ -6724,13 +6718,13 @@
         <v>1014774</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>1509</v>
@@ -6739,13 +6733,13 @@
         <v>1640099</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6754,13 @@
         <v>2744304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>2413</v>
@@ -6775,10 +6769,10 @@
         <v>2507215</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>460</v>
@@ -6852,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5860532-A7D3-4DB0-A448-6F06346375DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDCF70-D097-4591-AA95-0597AB682BD0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7000,13 +6994,13 @@
         <v>78551</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>280</v>
@@ -7015,13 +7009,13 @@
         <v>138967</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>382</v>
@@ -7030,10 +7024,10 @@
         <v>217518</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>472</v>
@@ -7051,13 +7045,13 @@
         <v>181747</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -7066,13 +7060,13 @@
         <v>132436</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
@@ -7081,13 +7075,13 @@
         <v>314182</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,10 +7337,10 @@
         <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7355,13 @@
         <v>215142</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -7376,13 +7370,13 @@
         <v>235626</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>525</v>
@@ -7391,13 +7385,13 @@
         <v>450769</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>515</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7459,13 @@
         <v>101213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -7480,13 +7474,13 @@
         <v>177839</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M13" s="7">
         <v>421</v>
@@ -7495,13 +7489,13 @@
         <v>279052</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7510,13 @@
         <v>219524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -7531,13 +7525,13 @@
         <v>250219</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -7546,13 +7540,13 @@
         <v>469743</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7614,13 @@
         <v>46342</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -7635,13 +7629,13 @@
         <v>76401</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>256</v>
@@ -7650,13 +7644,13 @@
         <v>122743</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7665,13 @@
         <v>150406</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -7686,13 +7680,13 @@
         <v>155004</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
@@ -7763,7 +7757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7811,7 +7805,7 @@
         <v>555</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>556</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,10 +7820,10 @@
         <v>154753</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>494</v>
@@ -7841,13 +7835,13 @@
         <v>125606</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
@@ -7856,13 +7850,13 @@
         <v>280360</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7924,13 @@
         <v>169071</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H22" s="7">
         <v>366</v>
@@ -7945,13 +7939,13 @@
         <v>355699</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M22" s="7">
         <v>534</v>
@@ -7960,13 +7954,13 @@
         <v>524770</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7975,13 @@
         <v>457923</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
@@ -7996,13 +7990,13 @@
         <v>446594</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M23" s="7">
         <v>1021</v>
@@ -8011,13 +8005,13 @@
         <v>904517</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8085,13 +8079,13 @@
         <v>146024</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
@@ -8100,10 +8094,10 @@
         <v>256956</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>489</v>
@@ -8115,13 +8109,13 @@
         <v>402980</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8130,13 @@
         <v>712322</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>708</v>
@@ -8151,13 +8145,13 @@
         <v>609910</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>1305</v>
@@ -8166,13 +8160,13 @@
         <v>1322232</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8234,13 @@
         <v>896869</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="H28" s="7">
         <v>2298</v>
@@ -8255,13 +8249,13 @@
         <v>1487154</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="M28" s="7">
         <v>3348</v>
@@ -8270,13 +8264,13 @@
         <v>2384023</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8285,13 @@
         <v>2485013</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>3059</v>
@@ -8306,13 +8300,13 @@
         <v>2316343</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>5382</v>
@@ -8321,13 +8315,13 @@
         <v>4801356</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426DD433-86B7-4AF5-828C-8790B160BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7923B28D-EEC8-4F38-8DA8-F11382BED2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A316177-7F77-40F5-B48B-6B43F5700ED0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CF6DCDC-B535-4E45-90CB-E43C98097119}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1711 +77,1729 @@
     <t>24,22%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>68,44%</t>
   </si>
   <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>62,73%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>44,18%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>49,42%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>49,29%</t>
   </si>
   <si>
-    <t>45,64%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>55,82%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>50,58%</t>
   </si>
   <si>
     <t>45,57%</t>
   </si>
   <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>54,36%</t>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
   </si>
   <si>
     <t>73,03%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>17,01%</t>
@@ -1790,88 +1808,76 @@
     <t>13,66%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>26,86%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
     <t>86,34%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>73,14%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
     <t>39,1%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>45,56%</t>
+    <t>44,88%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>54,44%</t>
+    <t>55,12%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1880,10 +1886,10 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1F5357-91E9-406D-9978-A1A3FA554899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692693D4-AB01-4FC7-BE52-D20E5754E37C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2899,13 +2905,13 @@
         <v>129381</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -2914,13 +2920,13 @@
         <v>204324</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2941,13 @@
         <v>283728</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>252</v>
@@ -2950,13 +2956,13 @@
         <v>242075</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>538</v>
@@ -2965,13 +2971,13 @@
         <v>525803</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3039,13 +3045,13 @@
         <v>30885</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3054,13 +3060,13 @@
         <v>47717</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3069,10 +3075,10 @@
         <v>78602</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -3093,10 +3099,10 @@
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3105,13 +3111,13 @@
         <v>159951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>327</v>
@@ -3120,13 +3126,13 @@
         <v>332374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,7 +3188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3194,13 +3200,13 @@
         <v>51840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -3209,13 +3215,13 @@
         <v>82163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3224,13 +3230,13 @@
         <v>134002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3251,13 @@
         <v>218971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -3260,13 +3266,13 @@
         <v>195981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>404</v>
@@ -3275,13 +3281,13 @@
         <v>414953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3349,13 +3355,13 @@
         <v>86053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3364,13 +3370,13 @@
         <v>131406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -3379,13 +3385,13 @@
         <v>217460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3406,13 @@
         <v>528974</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>489</v>
@@ -3415,13 +3421,13 @@
         <v>506813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>997</v>
@@ -3430,13 +3436,13 @@
         <v>1035786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,7 +3498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3504,13 +3510,13 @@
         <v>137143</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -3519,13 +3525,13 @@
         <v>203839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -3534,13 +3540,13 @@
         <v>340982</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3561,13 @@
         <v>606652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>557</v>
@@ -3570,13 +3576,13 @@
         <v>579672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -3585,13 +3591,13 @@
         <v>1186324</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3665,13 @@
         <v>595684</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>959</v>
@@ -3674,28 +3680,28 @@
         <v>986706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
       </c>
       <c r="N28" s="7">
-        <v>1582390</v>
+        <v>1582389</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,16 +3713,16 @@
         <v>2614</v>
       </c>
       <c r="D29" s="7">
-        <v>2680859</v>
+        <v>2680860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>2338</v>
@@ -3725,13 +3731,13 @@
         <v>2392492</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>4952</v>
@@ -3740,13 +3746,13 @@
         <v>5073351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3764,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3788,7 +3794,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756C94AB-E089-4990-8A4B-1A6BC162B783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58992615-90C6-47AE-B8F3-938D59FB51AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4093,13 @@
         <v>71639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -4102,13 +4108,13 @@
         <v>152155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -4117,13 +4123,13 @@
         <v>223794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4144,13 @@
         <v>432941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -4153,13 +4159,13 @@
         <v>371610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -4168,13 +4174,13 @@
         <v>804551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4248,13 @@
         <v>51539</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4257,13 +4263,13 @@
         <v>89820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4272,13 +4278,13 @@
         <v>141359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4299,13 @@
         <v>272507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -4308,13 +4314,13 @@
         <v>251200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -4323,13 +4329,13 @@
         <v>523707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4403,13 @@
         <v>121492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -4412,13 +4418,13 @@
         <v>239682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -4427,13 +4433,13 @@
         <v>361174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4454,13 @@
         <v>537980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -4463,13 +4469,13 @@
         <v>433621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>901</v>
@@ -4478,13 +4484,13 @@
         <v>971601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4546,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4552,13 +4558,13 @@
         <v>45941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4567,13 +4573,13 @@
         <v>101665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -4582,13 +4588,13 @@
         <v>147607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4609,13 @@
         <v>166677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -4618,13 +4624,13 @@
         <v>117926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4633,13 +4639,13 @@
         <v>284602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4707,13 +4713,13 @@
         <v>67302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4722,13 +4728,13 @@
         <v>81493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4737,13 +4743,13 @@
         <v>148795</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4764,13 @@
         <v>205811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -4773,13 +4779,13 @@
         <v>198538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>385</v>
@@ -4788,13 +4794,13 @@
         <v>404349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4856,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4862,13 +4868,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4877,13 +4883,13 @@
         <v>186302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -4892,13 +4898,13 @@
         <v>286071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4919,13 @@
         <v>562065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>468</v>
@@ -4928,13 +4934,13 @@
         <v>506579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
@@ -4943,13 +4949,13 @@
         <v>1068645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +5011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5017,13 +5023,13 @@
         <v>185743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -5035,10 +5041,10 @@
         <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -5047,13 +5053,13 @@
         <v>448292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5074,13 @@
         <v>588279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>519</v>
@@ -5086,10 +5092,10 @@
         <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1065</v>
@@ -5098,13 +5104,13 @@
         <v>1149584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5178,13 @@
         <v>643427</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1032</v>
@@ -5187,13 +5193,13 @@
         <v>1113667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>1619</v>
@@ -5202,13 +5208,13 @@
         <v>1757093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>2766261</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -5238,13 +5244,13 @@
         <v>2440777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>4868</v>
@@ -5253,13 +5259,13 @@
         <v>5207038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEAF9A8-ABBE-4CE2-A909-6AC2C18C1120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E687F1-CCEE-407B-8BD4-A9CFF9CF5F14}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5469,13 @@
         <v>59696</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -5478,13 +5484,13 @@
         <v>108205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>156</v>
@@ -5493,13 +5499,13 @@
         <v>167901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5520,13 @@
         <v>229800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -5529,13 +5535,13 @@
         <v>178647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>381</v>
@@ -5544,13 +5550,13 @@
         <v>408448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5624,13 @@
         <v>65675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -5633,13 +5639,13 @@
         <v>112694</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>161</v>
@@ -5648,13 +5654,13 @@
         <v>178369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5675,13 @@
         <v>436900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5684,13 +5690,13 @@
         <v>407152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>795</v>
@@ -5699,13 +5705,13 @@
         <v>844053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5779,13 @@
         <v>41840</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5788,13 +5794,13 @@
         <v>75025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5803,13 +5809,13 @@
         <v>116865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5830,13 @@
         <v>274051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5839,13 +5845,13 @@
         <v>256182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5854,13 +5860,13 @@
         <v>530233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5934,13 @@
         <v>82175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -5943,13 +5949,13 @@
         <v>143041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -5958,13 +5964,13 @@
         <v>225216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5985,13 @@
         <v>285774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -5994,13 +6000,13 @@
         <v>241204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -6009,13 +6015,13 @@
         <v>526978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,7 +6077,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6083,13 +6089,13 @@
         <v>45275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -6098,13 +6104,13 @@
         <v>63888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -6113,13 +6119,13 @@
         <v>109163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6140,13 @@
         <v>161190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6149,13 +6155,13 @@
         <v>154699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -6164,13 +6170,13 @@
         <v>315889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,7 +6232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6238,13 +6244,13 @@
         <v>57547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6253,13 +6259,13 @@
         <v>83592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6268,13 +6274,13 @@
         <v>141139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6295,13 @@
         <v>205576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6304,28 +6310,28 @@
         <v>187388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
       </c>
       <c r="N20" s="7">
-        <v>392963</v>
+        <v>392964</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6373,7 @@
         <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>534102</v>
+        <v>534103</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6381,7 +6387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6393,13 +6399,13 @@
         <v>150027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -6408,13 +6414,13 @@
         <v>215593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6423,13 +6429,13 @@
         <v>365620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6450,13 @@
         <v>499633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>452</v>
@@ -6459,13 +6465,13 @@
         <v>472573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>892</v>
@@ -6474,13 +6480,13 @@
         <v>972206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6542,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6554,13 @@
         <v>123091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -6563,13 +6569,13 @@
         <v>212735</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>304</v>
@@ -6578,13 +6584,13 @@
         <v>335826</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6605,13 @@
         <v>651380</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>569</v>
@@ -6614,13 +6620,13 @@
         <v>609370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -6629,13 +6635,13 @@
         <v>1260750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6709,13 @@
         <v>625326</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>903</v>
@@ -6718,13 +6724,13 @@
         <v>1014774</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>1509</v>
@@ -6733,13 +6739,13 @@
         <v>1640099</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6760,13 @@
         <v>2744304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>2413</v>
@@ -6769,13 +6775,13 @@
         <v>2507215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>5015</v>
@@ -6784,13 +6790,13 @@
         <v>5251519</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDCF70-D097-4591-AA95-0597AB682BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2B71A-1880-4161-B51F-935A791C24D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +7000,13 @@
         <v>78551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>280</v>
@@ -7009,13 +7015,13 @@
         <v>138967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>382</v>
@@ -7024,13 +7030,13 @@
         <v>217518</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7051,13 @@
         <v>181747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -7060,13 +7066,13 @@
         <v>132436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
@@ -7075,13 +7081,13 @@
         <v>314182</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7155,13 @@
         <v>126100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>151</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -7164,13 +7170,13 @@
         <v>193618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -7179,13 +7185,13 @@
         <v>319718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7206,13 @@
         <v>393197</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -7215,13 +7221,13 @@
         <v>360948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -7230,13 +7236,13 @@
         <v>754146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7310,13 @@
         <v>107098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
@@ -7319,13 +7325,13 @@
         <v>137658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
@@ -7334,13 +7340,13 @@
         <v>244755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7361,13 @@
         <v>215142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -7370,13 +7376,13 @@
         <v>235626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M11" s="7">
         <v>525</v>
@@ -7385,13 +7391,13 @@
         <v>450769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7465,13 @@
         <v>101213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -7474,13 +7480,13 @@
         <v>177839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>421</v>
@@ -7489,13 +7495,13 @@
         <v>279052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7516,13 @@
         <v>219524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -7525,13 +7531,13 @@
         <v>250219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -7540,13 +7546,13 @@
         <v>469743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,7 +7608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7614,13 +7620,13 @@
         <v>46342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -7629,13 +7635,13 @@
         <v>76401</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>256</v>
@@ -7644,13 +7650,13 @@
         <v>122743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7671,13 @@
         <v>150406</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -7680,13 +7686,13 @@
         <v>155004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
@@ -7695,13 +7701,13 @@
         <v>305409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,7 +7763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7769,13 +7775,13 @@
         <v>122470</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H19" s="7">
         <v>294</v>
@@ -7784,13 +7790,13 @@
         <v>150016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>482</v>
@@ -7799,13 +7805,13 @@
         <v>272485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7826,13 @@
         <v>154753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -7835,13 +7841,13 @@
         <v>125606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
@@ -7850,13 +7856,13 @@
         <v>280360</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,7 +7918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7924,13 +7930,13 @@
         <v>169071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>366</v>
@@ -7939,13 +7945,13 @@
         <v>355699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>534</v>
@@ -7954,13 +7960,13 @@
         <v>524770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7981,13 @@
         <v>457923</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
@@ -7990,13 +7996,13 @@
         <v>446594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1021</v>
@@ -8005,13 +8011,13 @@
         <v>904517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,7 +8073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8079,13 +8085,13 @@
         <v>146024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
@@ -8094,13 +8100,13 @@
         <v>256956</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>489</v>
+        <v>591</v>
       </c>
       <c r="M25" s="7">
         <v>516</v>
@@ -8109,13 +8115,13 @@
         <v>402980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8136,13 @@
         <v>712322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>590</v>
+        <v>66</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>708</v>
@@ -8145,13 +8151,13 @@
         <v>609910</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>1305</v>
@@ -8160,13 +8166,13 @@
         <v>1322232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8240,13 @@
         <v>896869</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>114</v>
       </c>
       <c r="H28" s="7">
         <v>2298</v>
@@ -8249,13 +8255,13 @@
         <v>1487154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M28" s="7">
         <v>3348</v>
@@ -8264,13 +8270,13 @@
         <v>2384023</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,43 +8291,43 @@
         <v>2485013</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>3059</v>
       </c>
       <c r="I29" s="7">
-        <v>2316343</v>
+        <v>2316342</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>5382</v>
       </c>
       <c r="N29" s="7">
-        <v>4801356</v>
+        <v>4801357</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,7 +8354,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3803497</v>
+        <v>3803496</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8363,7 +8369,7 @@
         <v>8730</v>
       </c>
       <c r="N30" s="7">
-        <v>7185379</v>
+        <v>7185380</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8377,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7923B28D-EEC8-4F38-8DA8-F11382BED2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86841D5-49F7-486A-8873-016EE6C8C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CF6DCDC-B535-4E45-90CB-E43C98097119}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5787A059-0AA6-4FA9-A7D5-034F4A7F819C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="638">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>14,2%</t>
@@ -692,58 +743,58 @@
     <t>81,88%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>21,61%</t>
@@ -1448,448 +1499,460 @@
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>67,24%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>60,78%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692693D4-AB01-4FC7-BE52-D20E5754E37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CDC730-8127-445E-8372-C0C94CFF28E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3692,7 +3755,7 @@
         <v>1559</v>
       </c>
       <c r="N28" s="7">
-        <v>1582389</v>
+        <v>1582390</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>130</v>
@@ -3713,7 +3776,7 @@
         <v>2614</v>
       </c>
       <c r="D29" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>170</v>
@@ -3728,7 +3791,7 @@
         <v>2338</v>
       </c>
       <c r="I29" s="7">
-        <v>2392492</v>
+        <v>2392491</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>173</v>
@@ -3764,7 +3827,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3779,7 +3842,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3794,7 +3857,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58992615-90C6-47AE-B8F3-938D59FB51AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89DF62C-370A-4A26-AD0A-6D70C91ACEB3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3950,43 +4013,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D4" s="7">
+        <v>60083</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I4" s="7">
+        <v>105076</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="N4" s="7">
+        <v>165159</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,43 +4064,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="D5" s="7">
+        <v>231577</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="I5" s="7">
+        <v>181230</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>382</v>
+      </c>
+      <c r="N5" s="7">
+        <v>412807</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,43 +4115,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>291660</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I6" s="7">
+        <v>286306</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>534</v>
+      </c>
+      <c r="N6" s="7">
+        <v>577966</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4174,13 @@
         <v>71639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -4108,13 +4189,13 @@
         <v>152155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -4123,13 +4204,13 @@
         <v>223794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4225,13 @@
         <v>432941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -4159,13 +4240,13 @@
         <v>371610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -4174,13 +4255,13 @@
         <v>804551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4329,13 @@
         <v>51539</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4263,13 +4344,13 @@
         <v>89820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4278,13 +4359,13 @@
         <v>141359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4380,13 @@
         <v>272507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -4314,13 +4395,13 @@
         <v>251200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -4329,13 +4410,13 @@
         <v>523707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,49 +4478,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>121492</v>
+        <v>61410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="I13" s="7">
-        <v>239682</v>
+        <v>134606</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>361174</v>
+        <v>196015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,49 +4529,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>537980</v>
+        <v>306403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>397</v>
+        <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>433621</v>
+        <v>252391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>901</v>
+        <v>519</v>
       </c>
       <c r="N14" s="7">
-        <v>971601</v>
+        <v>558794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>618</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7">
-        <v>659472</v>
+        <v>367813</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4514,10 +4595,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>624</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>673303</v>
+        <v>386997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4529,10 +4610,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1242</v>
+        <v>708</v>
       </c>
       <c r="N15" s="7">
-        <v>1332775</v>
+        <v>754809</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4558,13 +4639,13 @@
         <v>45941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4573,13 +4654,13 @@
         <v>101665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -4588,13 +4669,13 @@
         <v>147607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4690,13 @@
         <v>166677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -4624,13 +4705,13 @@
         <v>117926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4639,13 +4720,13 @@
         <v>284602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4794,13 @@
         <v>67302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4728,13 +4809,13 @@
         <v>81493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4743,13 +4824,13 @@
         <v>148795</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4845,13 @@
         <v>205811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -4779,13 +4860,13 @@
         <v>198538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>385</v>
@@ -4794,13 +4875,13 @@
         <v>404349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4949,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4883,13 +4964,13 @@
         <v>186302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -4898,13 +4979,13 @@
         <v>286071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +5000,13 @@
         <v>562065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>468</v>
@@ -4934,13 +5015,13 @@
         <v>506579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
@@ -4949,13 +5030,13 @@
         <v>1068645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5104,13 @@
         <v>185743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -5041,10 +5122,10 @@
         <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -5053,13 +5134,13 @@
         <v>448292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5155,13 @@
         <v>588279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>519</v>
@@ -5092,25 +5173,25 @@
         <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1065</v>
       </c>
       <c r="N26" s="7">
-        <v>1149584</v>
+        <v>1149583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5233,7 @@
         <v>1469</v>
       </c>
       <c r="N27" s="7">
-        <v>1597876</v>
+        <v>1597875</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5178,13 +5259,13 @@
         <v>643427</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1032</v>
@@ -5193,13 +5274,13 @@
         <v>1113667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>1619</v>
@@ -5208,13 +5289,13 @@
         <v>1757093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,16 +5307,16 @@
         <v>2606</v>
       </c>
       <c r="D29" s="7">
-        <v>2766261</v>
+        <v>2766260</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>2262</v>
@@ -5244,13 +5325,13 @@
         <v>2440777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>4868</v>
@@ -5259,10 +5340,10 @@
         <v>5207038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>21</v>
@@ -5277,7 +5358,7 @@
         <v>3193</v>
       </c>
       <c r="D30" s="7">
-        <v>3409688</v>
+        <v>3409687</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5345,7 +5426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E687F1-CCEE-407B-8BD4-A9CFF9CF5F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A246A1-D6BB-48E0-8096-8FF712E85A2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5550,13 @@
         <v>59696</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -5484,13 +5565,13 @@
         <v>108205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>156</v>
@@ -5499,13 +5580,13 @@
         <v>167901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5601,13 @@
         <v>229800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -5535,13 +5616,13 @@
         <v>178647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>381</v>
@@ -5550,13 +5631,13 @@
         <v>408448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5705,13 @@
         <v>65675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -5639,13 +5720,13 @@
         <v>112694</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>161</v>
@@ -5654,13 +5735,13 @@
         <v>178369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5756,13 @@
         <v>436900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5690,13 +5771,13 @@
         <v>407152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>795</v>
@@ -5705,13 +5786,13 @@
         <v>844053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5860,13 @@
         <v>41840</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5794,13 +5875,13 @@
         <v>75025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5809,13 +5890,13 @@
         <v>116865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5911,13 @@
         <v>274051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5845,13 +5926,13 @@
         <v>256182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5860,13 +5941,13 @@
         <v>530233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,10 +6018,10 @@
         <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -5949,13 +6030,13 @@
         <v>143041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -5964,13 +6045,13 @@
         <v>225216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,10 +6069,10 @@
         <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -6000,13 +6081,13 @@
         <v>241204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -6015,13 +6096,13 @@
         <v>526978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6170,13 @@
         <v>45275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -6104,13 +6185,13 @@
         <v>63888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -6119,13 +6200,13 @@
         <v>109163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6221,13 @@
         <v>161190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6155,13 +6236,13 @@
         <v>154699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -6170,13 +6251,13 @@
         <v>315889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6325,13 @@
         <v>57547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6259,13 +6340,13 @@
         <v>83592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6274,13 +6355,13 @@
         <v>141139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6376,13 @@
         <v>205576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6310,13 +6391,13 @@
         <v>187388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
@@ -6325,13 +6406,13 @@
         <v>392964</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6480,13 @@
         <v>150027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -6414,13 +6495,13 @@
         <v>215593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6429,13 +6510,13 @@
         <v>365620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6531,13 @@
         <v>499633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>452</v>
@@ -6465,13 +6546,13 @@
         <v>472573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>892</v>
@@ -6480,13 +6561,13 @@
         <v>972206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6635,13 @@
         <v>123091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -6569,13 +6650,13 @@
         <v>212735</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>304</v>
@@ -6584,13 +6665,13 @@
         <v>335826</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6686,13 @@
         <v>651380</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>569</v>
@@ -6620,13 +6701,13 @@
         <v>609370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -6635,13 +6716,13 @@
         <v>1260750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6790,13 @@
         <v>625326</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H28" s="7">
         <v>903</v>
@@ -6724,13 +6805,13 @@
         <v>1014774</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>1509</v>
@@ -6739,13 +6820,13 @@
         <v>1640099</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6841,13 @@
         <v>2744304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>2413</v>
@@ -6775,13 +6856,13 @@
         <v>2507215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>5015</v>
@@ -6790,13 +6871,13 @@
         <v>5251519</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2B71A-1880-4161-B51F-935A791C24D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5193671F-38D8-4EAC-8CB0-29326B4E6783}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6997,46 +7078,46 @@
         <v>102</v>
       </c>
       <c r="D4" s="7">
-        <v>78551</v>
+        <v>91127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>280</v>
       </c>
       <c r="I4" s="7">
-        <v>138967</v>
+        <v>145839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>382</v>
       </c>
       <c r="N4" s="7">
-        <v>217518</v>
+        <v>236965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,46 +7129,46 @@
         <v>229</v>
       </c>
       <c r="D5" s="7">
-        <v>181747</v>
+        <v>220316</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
       </c>
       <c r="I5" s="7">
-        <v>132436</v>
+        <v>143796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
       </c>
       <c r="N5" s="7">
-        <v>314182</v>
+        <v>364112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,7 +7180,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7114,7 +7195,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7129,7 +7210,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7152,46 +7233,46 @@
         <v>110</v>
       </c>
       <c r="D7" s="7">
-        <v>126100</v>
+        <v>120429</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>504</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
       </c>
       <c r="I7" s="7">
-        <v>193618</v>
+        <v>178783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
       </c>
       <c r="N7" s="7">
-        <v>319718</v>
+        <v>299211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,46 +7284,46 @@
         <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>393197</v>
+        <v>397961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
       </c>
       <c r="I8" s="7">
-        <v>360948</v>
+        <v>336186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
       </c>
       <c r="N8" s="7">
-        <v>754146</v>
+        <v>734148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7335,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7269,7 +7350,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7284,7 +7365,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7307,46 +7388,46 @@
         <v>136</v>
       </c>
       <c r="D10" s="7">
-        <v>107098</v>
+        <v>103064</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
       </c>
       <c r="I10" s="7">
-        <v>137658</v>
+        <v>127741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>244755</v>
+        <v>230806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,46 +7439,46 @@
         <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>215142</v>
+        <v>212986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
       </c>
       <c r="I11" s="7">
-        <v>235626</v>
+        <v>221387</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>525</v>
       </c>
       <c r="N11" s="7">
-        <v>450769</v>
+        <v>434372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,7 +7490,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7424,7 +7505,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7439,7 +7520,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7462,46 +7543,46 @@
         <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>101213</v>
+        <v>96855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
       </c>
       <c r="I13" s="7">
-        <v>177839</v>
+        <v>164605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="M13" s="7">
         <v>421</v>
       </c>
       <c r="N13" s="7">
-        <v>279052</v>
+        <v>261460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,46 +7594,46 @@
         <v>182</v>
       </c>
       <c r="D14" s="7">
-        <v>219524</v>
+        <v>214286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>250219</v>
+        <v>310655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
       </c>
       <c r="N14" s="7">
-        <v>469743</v>
+        <v>524941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7645,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>320737</v>
+        <v>311141</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7579,7 +7660,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428058</v>
+        <v>475260</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7594,7 +7675,7 @@
         <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>748795</v>
+        <v>786401</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7617,46 +7698,46 @@
         <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>46342</v>
+        <v>42182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>554</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
       </c>
       <c r="I16" s="7">
-        <v>76401</v>
+        <v>69445</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>256</v>
       </c>
       <c r="N16" s="7">
-        <v>122743</v>
+        <v>111627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,46 +7749,46 @@
         <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>150406</v>
+        <v>136560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
       </c>
       <c r="I17" s="7">
-        <v>155004</v>
+        <v>138778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
       </c>
       <c r="N17" s="7">
-        <v>305409</v>
+        <v>275338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,7 +7800,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7734,7 +7815,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231405</v>
+        <v>208223</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7749,7 +7830,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428152</v>
+        <v>386965</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7772,46 +7853,46 @@
         <v>188</v>
       </c>
       <c r="D19" s="7">
-        <v>122470</v>
+        <v>117786</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>571</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="H19" s="7">
         <v>294</v>
       </c>
       <c r="I19" s="7">
-        <v>150016</v>
+        <v>140088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="M19" s="7">
         <v>482</v>
       </c>
       <c r="N19" s="7">
-        <v>272485</v>
+        <v>257874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,46 +7904,46 @@
         <v>183</v>
       </c>
       <c r="D20" s="7">
-        <v>154753</v>
+        <v>151850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>581</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
       </c>
       <c r="I20" s="7">
-        <v>125606</v>
+        <v>116968</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
       </c>
       <c r="N20" s="7">
-        <v>280360</v>
+        <v>268818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,7 +7955,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7889,7 +7970,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7904,7 +7985,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7927,46 +8008,46 @@
         <v>168</v>
       </c>
       <c r="D22" s="7">
-        <v>169071</v>
+        <v>163401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>366</v>
       </c>
       <c r="I22" s="7">
-        <v>355699</v>
+        <v>430865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="M22" s="7">
         <v>534</v>
       </c>
       <c r="N22" s="7">
-        <v>524770</v>
+        <v>594266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,46 +8059,46 @@
         <v>430</v>
       </c>
       <c r="D23" s="7">
-        <v>457923</v>
+        <v>460147</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
       </c>
       <c r="I23" s="7">
-        <v>446594</v>
+        <v>416643</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>1021</v>
       </c>
       <c r="N23" s="7">
-        <v>904517</v>
+        <v>876791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,7 +8110,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626994</v>
+        <v>623548</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8044,7 +8125,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>802293</v>
+        <v>847508</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8059,7 +8140,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1429287</v>
+        <v>1471057</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8082,46 +8163,46 @@
         <v>164</v>
       </c>
       <c r="D25" s="7">
-        <v>146024</v>
+        <v>124961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>606</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
       </c>
       <c r="I25" s="7">
-        <v>256956</v>
+        <v>213366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>516</v>
       </c>
       <c r="N25" s="7">
-        <v>402980</v>
+        <v>338328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,46 +8214,46 @@
         <v>597</v>
       </c>
       <c r="D26" s="7">
-        <v>712322</v>
+        <v>802843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>614</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="H26" s="7">
         <v>708</v>
       </c>
       <c r="I26" s="7">
-        <v>609910</v>
+        <v>503115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="M26" s="7">
         <v>1305</v>
       </c>
       <c r="N26" s="7">
-        <v>1322232</v>
+        <v>1305958</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,7 +8265,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858346</v>
+        <v>927804</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8199,7 +8280,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866866</v>
+        <v>716481</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8214,7 +8295,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725212</v>
+        <v>1644286</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8237,46 +8318,46 @@
         <v>1050</v>
       </c>
       <c r="D28" s="7">
-        <v>896869</v>
+        <v>859805</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>253</v>
+        <v>623</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>624</v>
       </c>
       <c r="H28" s="7">
         <v>2298</v>
       </c>
       <c r="I28" s="7">
-        <v>1487154</v>
+        <v>1470732</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="M28" s="7">
         <v>3348</v>
       </c>
       <c r="N28" s="7">
-        <v>2384023</v>
+        <v>2330537</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>608</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,46 +8369,46 @@
         <v>2323</v>
       </c>
       <c r="D29" s="7">
-        <v>2485013</v>
+        <v>2596949</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>631</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>632</v>
       </c>
       <c r="H29" s="7">
         <v>3059</v>
       </c>
       <c r="I29" s="7">
-        <v>2316342</v>
+        <v>2187527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>5382</v>
       </c>
       <c r="N29" s="7">
-        <v>4801357</v>
+        <v>4784476</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,7 +8420,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3381882</v>
+        <v>3456754</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8354,7 +8435,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3803496</v>
+        <v>3658259</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8369,7 +8450,7 @@
         <v>8730</v>
       </c>
       <c r="N30" s="7">
-        <v>7185380</v>
+        <v>7115013</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
